--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_133__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_133__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5420,31 +5420,31 @@
                   <c:v>87.77973937988281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.9365234375</c:v>
+                  <c:v>94.93650817871094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.87081909179688</c:v>
+                  <c:v>94.87083435058594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.83559799194336</c:v>
+                  <c:v>49.83559036254883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.3265495300293</c:v>
+                  <c:v>32.32655334472656</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>56.79868316650391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.33486938476562</c:v>
+                  <c:v>97.33485412597656</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>97.45152282714844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.03347778320312</c:v>
+                  <c:v>92.03349304199219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96.64698791503906</c:v>
+                  <c:v>96.64700317382812</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>49.53882598876953</c:v>
@@ -5465,7 +5465,7 @@
                   <c:v>72.508544921875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73.17760467529297</c:v>
+                  <c:v>73.1776123046875</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>11.75076770782471</c:v>
@@ -5474,16 +5474,16 @@
                   <c:v>97.44915771484375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>79.71209716796875</c:v>
+                  <c:v>79.71208190917969</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.68984222412109</c:v>
+                  <c:v>54.68984603881836</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>63.32815933227539</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.2314453125</c:v>
+                  <c:v>54.23144149780273</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>89.54098510742188</c:v>
@@ -5501,7 +5501,7 @@
                   <c:v>97.23825073242188</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>69.32658386230469</c:v>
+                  <c:v>69.32659149169922</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>97.39971923828125</c:v>
@@ -5522,7 +5522,7 @@
                   <c:v>83.63578796386719</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.12086486816406</c:v>
+                  <c:v>40.12086868286133</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>89.46791076660156</c:v>
@@ -5549,7 +5549,7 @@
                   <c:v>83.12835693359375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90.21800231933594</c:v>
+                  <c:v>90.21798706054688</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>96.2991943359375</c:v>
@@ -5561,7 +5561,7 @@
                   <c:v>96.60847473144531</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>96.96235656738281</c:v>
+                  <c:v>96.96237182617188</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>83.66470336914062</c:v>
@@ -5570,10 +5570,10 @@
                   <c:v>85.13601684570312</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>97.45201110839844</c:v>
+                  <c:v>97.45199584960938</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>74.73233032226562</c:v>
+                  <c:v>74.73232269287109</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>88.79190063476562</c:v>
@@ -5594,7 +5594,7 @@
                   <c:v>96.91412353515625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>46.45560836791992</c:v>
+                  <c:v>46.45560455322266</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>85.0238037109375</c:v>
@@ -5621,16 +5621,16 @@
                   <c:v>97.1378173828125</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.68928909301758</c:v>
+                  <c:v>62.68928527832031</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82.3604736328125</c:v>
+                  <c:v>82.36045837402344</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>68.41757202148438</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>83.30375671386719</c:v>
+                  <c:v>83.30374145507812</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>97.26319885253906</c:v>
@@ -5642,25 +5642,25 @@
                   <c:v>27.51261901855469</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>66.23508453369141</c:v>
+                  <c:v>66.23507690429688</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>84.244384765625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>56.91640853881836</c:v>
+                  <c:v>56.91641616821289</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>82.98301696777344</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>65.708984375</c:v>
+                  <c:v>65.70897674560547</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.65331649780273</c:v>
+                  <c:v>53.6533203125</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97.47712707519531</c:v>
+                  <c:v>97.47714233398438</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>97.28181457519531</c:v>
@@ -6411,7 +6411,7 @@
         <v>93.9058</v>
       </c>
       <c r="F3">
-        <v>94.9365234375</v>
+        <v>94.93650817871094</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6443,7 +6443,7 @@
         <v>97.01439999999999</v>
       </c>
       <c r="F4">
-        <v>94.87081909179688</v>
+        <v>94.87083435058594</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>49.83559799194336</v>
+        <v>49.83559036254883</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>32.3265495300293</v>
+        <v>32.32655334472656</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>96.3035</v>
       </c>
       <c r="F8">
-        <v>97.33486938476562</v>
+        <v>97.33485412597656</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>89.3151</v>
       </c>
       <c r="F10">
-        <v>92.03347778320312</v>
+        <v>92.03349304199219</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>97.2368</v>
       </c>
       <c r="F11">
-        <v>96.64698791503906</v>
+        <v>96.64700317382812</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>73.17760467529297</v>
+        <v>73.1776123046875</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>80.21729999999999</v>
       </c>
       <c r="F21">
-        <v>79.71209716796875</v>
+        <v>79.71208190917969</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>54.68984222412109</v>
+        <v>54.68984603881836</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>54.2314453125</v>
+        <v>54.23144149780273</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>67.24550000000001</v>
       </c>
       <c r="F30">
-        <v>69.32658386230469</v>
+        <v>69.32659149169922</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>38.4808</v>
       </c>
       <c r="F37">
-        <v>40.12086486816406</v>
+        <v>40.12086868286133</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>90.6163</v>
       </c>
       <c r="F46">
-        <v>90.21800231933594</v>
+        <v>90.21798706054688</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>96.96235656738281</v>
+        <v>96.96237182617188</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>97.3824</v>
       </c>
       <c r="F53">
-        <v>97.45201110839844</v>
+        <v>97.45199584960938</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>75.0586</v>
       </c>
       <c r="F54">
-        <v>74.73233032226562</v>
+        <v>74.73232269287109</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>46.5133</v>
       </c>
       <c r="F61">
-        <v>46.45560836791992</v>
+        <v>46.45560455322266</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>62.6537</v>
       </c>
       <c r="F70">
-        <v>62.68928909301758</v>
+        <v>62.68928527832031</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>81.9267</v>
       </c>
       <c r="F71">
-        <v>82.3604736328125</v>
+        <v>82.36045837402344</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>82.6225</v>
       </c>
       <c r="F73">
-        <v>83.30375671386719</v>
+        <v>83.30374145507812</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>66.23508453369141</v>
+        <v>66.23507690429688</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>57.9591</v>
       </c>
       <c r="F79">
-        <v>56.91640853881836</v>
+        <v>56.91641616821289</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>61.7399</v>
       </c>
       <c r="F81">
-        <v>65.708984375</v>
+        <v>65.70897674560547</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>53.65331649780273</v>
+        <v>53.6533203125</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>97.51990000000001</v>
       </c>
       <c r="F83">
-        <v>97.47712707519531</v>
+        <v>97.47714233398438</v>
       </c>
     </row>
     <row r="84" spans="1:6">
